--- a/phpbasico/agenda-nilo/3.0(000webhost)/stand/Testes/Doc_testes.xlsx
+++ b/phpbasico/agenda-nilo/3.0(000webhost)/stand/Testes/Doc_testes.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\eduardo\Uc5\phpbasico\agenda-nilo\3.0(000webhost)\stand\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\eduardo\Uc5\phpbasico\agenda-nilo\3.0(000webhost)\stand\Testes\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Banco dados" sheetId="1" r:id="rId1"/>
@@ -293,25 +293,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="45"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" textRotation="45"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="180"/>
@@ -329,10 +332,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -618,7 +618,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C7" sqref="C7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -637,7 +637,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="8" t="s">
         <v>27</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -648,51 +648,51 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
+      <c r="A3" s="8"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
+      <c r="A4" s="8"/>
       <c r="B4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="8"/>
+      <c r="D4" s="9"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
+      <c r="A5" s="8"/>
       <c r="B5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
+      <c r="A6" s="8"/>
       <c r="B6" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="8"/>
+      <c r="D6" s="9"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
+      <c r="A7" s="8"/>
       <c r="B7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="8"/>
+      <c r="D7" s="9"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
+      <c r="A8" s="8"/>
       <c r="B8" t="s">
         <v>25</v>
       </c>
@@ -707,7 +707,7 @@
       <c r="K8" s="3"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
+      <c r="A9" s="8"/>
       <c r="B9" t="s">
         <v>28</v>
       </c>
@@ -739,8 +739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I7"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -749,57 +749,57 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>21</v>
       </c>
       <c r="B2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="12"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
+      <c r="A3" s="10"/>
       <c r="B3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="8"/>
+      <c r="D3" s="9"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
+      <c r="A4" s="10"/>
       <c r="B4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="8"/>
+      <c r="D4" s="9"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
+      <c r="A5" s="10"/>
       <c r="B5" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
+      <c r="A6" s="10"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
+      <c r="A7" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -821,50 +821,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -902,60 +902,60 @@
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15" t="s">
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15" t="s">
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15" t="s">
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15" t="s">
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="15"/>
-      <c r="V2" s="15" t="s">
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="W2" s="15"/>
-      <c r="X2" s="15"/>
-      <c r="Y2" s="15"/>
-      <c r="Z2" s="15" t="s">
+      <c r="W2" s="14"/>
+      <c r="X2" s="14"/>
+      <c r="Y2" s="14"/>
+      <c r="Z2" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="AA2" s="15"/>
-      <c r="AB2" s="15"/>
-      <c r="AC2" s="15"/>
-      <c r="AD2" s="15" t="s">
+      <c r="AA2" s="14"/>
+      <c r="AB2" s="14"/>
+      <c r="AC2" s="14"/>
+      <c r="AD2" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="AE2" s="15"/>
-      <c r="AF2" s="15"/>
-      <c r="AG2" s="15"/>
+      <c r="AE2" s="14"/>
+      <c r="AF2" s="14"/>
+      <c r="AG2" s="14"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
+      <c r="A3" s="10"/>
       <c r="B3" t="s">
         <v>7</v>
       </c>
@@ -1054,94 +1054,100 @@
       </c>
     </row>
     <row r="4" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
+      <c r="A4" s="10"/>
       <c r="B4" s="6"/>
-      <c r="R4" s="16" t="s">
+      <c r="R4" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="S4" s="14" t="s">
+      <c r="S4" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="T4" s="14" t="s">
+      <c r="T4" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="U4" s="13" t="s">
+      <c r="U4" s="15" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="14"/>
-      <c r="U5" s="13"/>
+      <c r="A5" s="10"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="15"/>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="14"/>
-      <c r="U6" s="13"/>
+      <c r="A6" s="10"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="15"/>
       <c r="V6" s="7"/>
       <c r="W6" s="5"/>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="14"/>
-      <c r="U7" s="13"/>
+      <c r="A7" s="10"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="15"/>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="14"/>
-      <c r="T8" s="14"/>
-      <c r="U8" s="13"/>
+      <c r="A8" s="10"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="16"/>
+      <c r="T8" s="16"/>
+      <c r="U8" s="15"/>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="14"/>
-      <c r="T9" s="14"/>
-      <c r="U9" s="13"/>
+      <c r="A9" s="10"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="15"/>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="13"/>
+      <c r="A10" s="10"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="16"/>
+      <c r="U10" s="15"/>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="R11" s="17"/>
+      <c r="A11" s="10"/>
+      <c r="R11" s="18"/>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="R12" s="17"/>
+      <c r="A12" s="10"/>
+      <c r="R12" s="18"/>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="R13" s="17"/>
+      <c r="A13" s="10"/>
+      <c r="R13" s="18"/>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="R14" s="17"/>
+      <c r="A14" s="10"/>
+      <c r="R14" s="18"/>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="R15" s="17"/>
+      <c r="A15" s="10"/>
+      <c r="R15" s="18"/>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="R16" s="17"/>
+      <c r="A16" s="10"/>
+      <c r="R16" s="18"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
+      <c r="A17" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="U4:U10"/>
+    <mergeCell ref="S4:S10"/>
+    <mergeCell ref="A2:A17"/>
+    <mergeCell ref="T4:T10"/>
+    <mergeCell ref="Z2:AC2"/>
+    <mergeCell ref="R4:R16"/>
     <mergeCell ref="AD2:AG2"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="F2:I2"/>
@@ -1149,12 +1155,6 @@
     <mergeCell ref="N2:Q2"/>
     <mergeCell ref="R2:U2"/>
     <mergeCell ref="V2:Y2"/>
-    <mergeCell ref="U4:U10"/>
-    <mergeCell ref="S4:S10"/>
-    <mergeCell ref="A2:A17"/>
-    <mergeCell ref="T4:T10"/>
-    <mergeCell ref="Z2:AC2"/>
-    <mergeCell ref="R4:R16"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1187,7 +1187,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>19</v>
       </c>
       <c r="B2" t="s">
@@ -1216,20 +1216,20 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
+      <c r="A3" s="19"/>
       <c r="B3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
+      <c r="A4" s="19"/>
       <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
+      <c r="A5" s="19"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
+      <c r="A6" s="19"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
@@ -1263,31 +1263,31 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="8" t="s">
         <v>31</v>
       </c>
       <c r="B2" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19" t="s">
+      <c r="D2" s="20"/>
+      <c r="E2" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="15" t="s">
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
+      <c r="A3" s="8"/>
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -1297,26 +1297,26 @@
       <c r="D3" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="9" t="s">
+      <c r="F3" s="21"/>
+      <c r="G3" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="9"/>
+      <c r="H3" s="22"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
+      <c r="A4" s="8"/>
       <c r="B4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
+      <c r="A5" s="8"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
+      <c r="A6" s="8"/>
       <c r="L6" s="5"/>
     </row>
   </sheetData>
